--- a/src/Resources/PieChart_mockData.xlsx
+++ b/src/Resources/PieChart_mockData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ArlaEksamen\src\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83349D7-4CFF-4D8F-9481-D91DBBDED292}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A407E2-C54F-4386-BC97-E4B0928B2B16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="10650" xr2:uid="{629316FC-2942-4C02-840E-72C79DB69974}"/>
   </bookViews>
@@ -25,12 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Department</t>
   </si>
   <si>
-    <t>Units Produced</t>
+    <t>Proficiency</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Packaging</t>
+  </si>
+  <si>
+    <t>Shipping</t>
   </si>
 </sst>
 </file>
@@ -391,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E000C82-035C-4303-8E4B-66BA54587D46}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,284 +424,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2000</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>7</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>231</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>8</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <f ca="1">RANDBETWEEN(1,9999)</f>
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ref="B7:B30" ca="1" si="0">RANDBETWEEN(1,9999)</f>
-        <v>3113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" ref="A8:A30" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>7550</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>3658</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>6069</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>6684</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>2744</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>5927</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>5420</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>7084</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B20">
-        <f t="shared" ca="1" si="0"/>
-        <v>3023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ca="1" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B23">
-        <f t="shared" ca="1" si="0"/>
-        <v>8730</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <f t="shared" ca="1" si="0"/>
-        <v>9581</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ca="1" si="0"/>
-        <v>617</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <f t="shared" ca="1" si="0"/>
-        <v>6648</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <f t="shared" ca="1" si="0"/>
-        <v>3080</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ca="1" si="0"/>
-        <v>5945</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B29">
-        <f t="shared" ca="1" si="0"/>
-        <v>6452</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <f t="shared" ca="1" si="0"/>
-        <v>9839</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
